--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,30 +2965,30 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.69</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.16</v>
+        <v>2.61</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,40 +2996,40 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.28</v>
+        <v>3.59</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>05/08/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>05/08/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>05/08/2023 16:56</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>04/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:56</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -3057,30 +3057,30 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.61</v>
+        <v>2.16</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,31 +3088,31 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.28</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.41</v>
+        <v>3.21</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.5</v>
+        <v>3.21</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-dukla-prague/SMpYxZLG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45205.72916666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:21</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-pribram/2wr5uSsF/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:52</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -2965,30 +2965,30 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.61</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,31 +2996,31 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.59</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.41</v>
+        <v>3.21</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>3.21</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:52</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.21</v>
+        <v>2.44</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.2</v>
+        <v>3.53</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.53</v>
+        <v>2.2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,466 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-pribram/2wr5uSsF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45206.42708333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-opava/8Gr1t8S8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45206.42708333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-zizkov/b5yEw6CR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45206.4375</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/prostejov-lisen/Gtn9vncL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.34</v>
+        <v>2.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:52</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
         </is>
       </c>
     </row>
@@ -3057,30 +3057,30 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.75</v>
+        <v>2.34</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,27 +3088,27 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:52</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,98 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45207.4375</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sparta-prague-kromeriz/UPqcslD2/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-jihlava/0ENuZPKr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.76</v>
+        <v>2.31</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>29/07/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>27/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>29/07/2023 16:52</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>27/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:52</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.62</v>
+        <v>4.23</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.1</v>
+        <v>3.81</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.23</v>
+        <v>5.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 14:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>2.97</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.41</v>
+        <v>3.17</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.03</v>
+        <v>2.23</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.89</v>
+        <v>3.13</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.25</v>
+        <v>3.92</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>4.52</v>
+        <v>3.07</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.12</v>
+        <v>2.58</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.22</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.51</v>
+        <v>3.03</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.09</v>
+        <v>2.89</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.49</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.23</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.85</v>
+        <v>4.52</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.88</v>
+        <v>6.12</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.06</v>
+        <v>3.51</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Lisen</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.97</v>
+        <v>2.24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.49</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>02/08/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>01/08/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>02/08/2023 17:55</t>
         </is>
       </c>
-      <c r="N24" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>01/08/2023 13:11</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>02/08/2023 17:55</t>
-        </is>
-      </c>
       <c r="R24" t="n">
-        <v>2.23</v>
+        <v>2.85</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.13</v>
+        <v>2.88</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.92</v>
+        <v>3.77</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.07</v>
+        <v>4.06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.58</v>
+        <v>3.82</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.34</v>
+        <v>2.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>12/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>12/08/2023 16:56</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="R36" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>10/08/2023 09:12</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="Q36" t="inlineStr">
+      <c r="T36" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>12/08/2023 16:56</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:56</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-chrudim/ppxe82aS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-kromeriz/CfprB4F9/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Kromeriz</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>12/08/2023 16:55</t>
+          <t>12/08/2023 16:56</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.08</v>
+        <v>4.96</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.78</v>
+        <v>7.33</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.63</v>
+        <v>8.59</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-kromeriz/CfprB4F9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-chrudim/ppxe82aS/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.49</v>
+        <v>3.09</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.6</v>
+        <v>2.67</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.22</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.02</v>
+        <v>3.81</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.47</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.42</v>
+        <v>2.38</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-sigma-olomouc/GSSQ2tNk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-dukla-prague/OUmnAOUF/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.09</v>
+        <v>1.49</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.67</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.31</v>
+        <v>4.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.81</v>
+        <v>4.02</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.1</v>
+        <v>5.47</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.38</v>
+        <v>5.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-dukla-prague/OUmnAOUF/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-sigma-olomouc/GSSQ2tNk/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 10:12</t>
+          <t>19/08/2023 10:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.23</v>
+        <v>3.69</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 10:12</t>
+          <t>19/08/2023 10:06</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.17</v>
+        <v>2.49</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.17</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 10:12</t>
+          <t>19/08/2023 10:06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-prostejov/xGf22XS6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-zizkov/WAuINsaF/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 10:05</t>
+          <t>19/08/2023 10:12</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.69</v>
+        <v>3.23</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 10:06</t>
+          <t>19/08/2023 10:12</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.49</v>
+        <v>3.17</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 10:06</t>
+          <t>19/08/2023 10:12</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-zizkov/WAuINsaF/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-prostejov/xGf22XS6/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Jihlava</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.88</v>
+        <v>3.36</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.54</v>
+        <v>4.06</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.29</v>
+        <v>2.98</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.57</v>
+        <v>4.05</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-pribram/2c2k5Zrl/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.06</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.05</v>
+        <v>3.62</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-pribram/2c2k5Zrl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:16</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.57</v>
+        <v>2.41</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.98</v>
+        <v>1.52</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.6</v>
+        <v>4.54</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.53</v>
+        <v>4.29</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.62</v>
+        <v>5.57</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:16</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.41</v>
+        <v>2.57</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.18</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>5.03</v>
+        <v>4.07</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.14</v>
+        <v>3.61</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>7.88</v>
+        <v>3.98</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.37</v>
+        <v>1.52</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.63</v>
+        <v>1.37</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.25</v>
+        <v>4.18</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.59</v>
+        <v>5.03</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.7</v>
+        <v>5.14</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.51</v>
+        <v>7.88</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.57</v>
+        <v>3.9</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.61</v>
+        <v>4.63</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.98</v>
+        <v>4.62</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.04</v>
+        <v>3.59</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.63</v>
+        <v>2.7</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.62</v>
+        <v>2.51</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,190 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-jihlava/0ENuZPKr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-mfk-vyskov/ITAjiPtR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-prostejov/fkxqYqzk/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 14:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>29/07/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>27/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>4.23</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>27/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>5.21</v>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 14:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.62</v>
+        <v>4.23</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.1</v>
+        <v>3.81</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.23</v>
+        <v>5.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.22</v>
+        <v>2.49</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.53</v>
+        <v>3.23</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>02/08/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>01/08/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>02/08/2023 17:51</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>01/08/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>02/08/2023 17:51</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.49</v>
+        <v>1.88</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.23</v>
+        <v>3.77</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.85</v>
+        <v>4.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.06</v>
+        <v>3.51</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.82</v>
+        <v>3.09</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.86</v>
+        <v>1.95</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,48 +8048,48 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>30/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O83" t="inlineStr">
+      <c r="R83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S83" t="inlineStr">
         <is>
           <t>28/09/2023 08:12</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:12</t>
-        </is>
-      </c>
       <c r="T83" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.31</v>
+        <v>3.57</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.2</v>
+        <v>3.53</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.63</v>
+        <v>2.6</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.6</v>
+        <v>4.63</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,374 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-prostejov/fkxqYqzk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-chrudim/vwCnh5RK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-taborsko/G4QiWN41/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-varnsdorf/rBIwfRd8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:24</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.52</v>
+        <v>3.51</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>6.12</v>
+        <v>3.09</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.51</v>
+        <v>4.52</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.09</v>
+        <v>6.12</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.31</v>
+        <v>3.57</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.57</v>
+        <v>3.31</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.37</v>
+        <v>3.48</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.2</v>
+        <v>3.42</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
         </is>
       </c>
     </row>
@@ -9930,6 +9930,190 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-vlasim/M1HsgoCE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.97</v>
+        <v>2.04</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.17</v>
+        <v>3.64</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.23</v>
+        <v>3.07</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.13</v>
+        <v>2.58</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.58</v>
+        <v>2.89</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.42</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.03</v>
+        <v>4.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.89</v>
+        <v>6.12</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.62</v>
+        <v>2.97</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>2.25</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.17</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.52</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.12</v>
+        <v>3.13</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.2</v>
+        <v>3.53</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.31</v>
+        <v>3.57</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.86</v>
+        <v>1.95</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,48 +8232,48 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>30/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
           <t>30/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O85" t="inlineStr">
+      <c r="R85" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S85" t="inlineStr">
         <is>
           <t>28/09/2023 08:12</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:12</t>
-        </is>
-      </c>
       <c r="T85" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-brno/t6rMuyxb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.6</v>
+        <v>4.63</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.63</v>
+        <v>2.6</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.52</v>
+        <v>4.59</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-varnsdorf/rBIwfRd8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.59</v>
+        <v>3.52</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-varnsdorf/rBIwfRd8/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,742 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45226.70833333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-lisen/8bkVqsZ0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45226.75</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:03</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:03</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:03</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-pribram/WWzQ5OeK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45227.42708333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-kromeriz/U7jRpNJf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45227.42708333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-opava/GOhwrL3D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45227.4375</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:17</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:17</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:17</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/prostejov-dukla-prague/xYgZr1l7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-vlasim/z9cInqkr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45228.4375</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:20</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:20</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:20</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sparta-prague-sigma-olomouc/nq1Mo34l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-zizkov/ITWL64tE/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.31</v>
+        <v>1.76</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.34</v>
+        <v>3.68</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>4.23</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.78</v>
+        <v>3.81</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.94</v>
+        <v>5.21</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.76</v>
+        <v>2.31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>29/07/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>27/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>29/07/2023 16:52</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>27/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:52</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.04</v>
+        <v>2.97</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.64</v>
+        <v>3.17</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.07</v>
+        <v>2.23</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.89</v>
+        <v>2.58</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.52</v>
+        <v>3.03</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.51</v>
+        <v>4.52</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.09</v>
+        <v>6.12</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.49</v>
+        <v>2.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.88</v>
+        <v>2.49</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.77</v>
+        <v>3.23</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.06</v>
+        <v>2.85</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.23</v>
+        <v>4.06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.13</v>
+        <v>3.82</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.34</v>
+        <v>2.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.73</v>
+        <v>2.16</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:52</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.44</v>
+        <v>3.21</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.52</v>
+        <v>3.21</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.21</v>
+        <v>2.66</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:52</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.98</v>
+        <v>2.51</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:16</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.53</v>
+        <v>2.57</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.62</v>
+        <v>2.72</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.61</v>
+        <v>1.98</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.41</v>
+        <v>3.53</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.6</v>
+        <v>3.62</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Jihlava</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.52</v>
+        <v>2.61</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.54</v>
+        <v>3.46</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.29</v>
+        <v>2.41</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5.57</v>
+        <v>2.6</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.51</v>
+        <v>1.52</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:16</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.21</v>
+        <v>3.88</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.42</v>
+        <v>4.54</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.57</v>
+        <v>4.29</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.72</v>
+        <v>5.57</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.89</v>
+        <v>1.66</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>25/08/2023 17:51</t>
+          <t>25/08/2023 17:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.37</v>
+        <v>3.7</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.89</v>
+        <v>3.98</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>25/08/2023 17:51</t>
+          <t>25/08/2023 17:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.24</v>
+        <v>4.45</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.84</v>
+        <v>4.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>25/08/2023 17:51</t>
+          <t>25/08/2023 17:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-dukla-prague/6ka61irD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-chrudim/hn7Z0u9a/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.66</v>
+        <v>3.89</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/08/2023 17:53</t>
+          <t>25/08/2023 17:51</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.7</v>
+        <v>3.37</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.98</v>
+        <v>3.89</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/08/2023 17:53</t>
+          <t>25/08/2023 17:51</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.45</v>
+        <v>2.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.9</v>
+        <v>1.84</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/08/2023 17:53</t>
+          <t>25/08/2023 17:51</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-chrudim/hn7Z0u9a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-dukla-prague/6ka61irD/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.87</v>
+        <v>2.37</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.07</v>
+        <v>3.59</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.61</v>
+        <v>2.7</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.98</v>
+        <v>2.51</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.9</v>
+        <v>3.57</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.63</v>
+        <v>3.61</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.62</v>
+        <v>3.98</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.37</v>
+        <v>1.59</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.63</v>
+        <v>1.68</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.7</v>
+        <v>4.63</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.51</v>
+        <v>4.62</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.57</v>
+        <v>3.31</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.37</v>
+        <v>3.48</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.2</v>
+        <v>3.42</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.57</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.63</v>
+        <v>2.6</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.6</v>
+        <v>4.63</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.59</v>
+        <v>3.52</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:21</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-varnsdorf/rBIwfRd8/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.52</v>
+        <v>4.59</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/10/2023 15:21</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-varnsdorf/rBIwfRd8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-sparta-prague/U7UeVsK7/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.72</v>
+        <v>3.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-vlasim/M1HsgoCE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.11</v>
+        <v>2.72</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.99</v>
+        <v>2.66</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-vlasim/M1HsgoCE/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,98 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-zizkov/ITWL64tE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45233.70833333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-varnsdorf/QgzU4rBQ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.23</v>
+        <v>4.06</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.13</v>
+        <v>3.82</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.04</v>
+        <v>2.97</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.64</v>
+        <v>3.17</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.07</v>
+        <v>2.23</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.89</v>
+        <v>2.58</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>2.39</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.52</v>
+        <v>3.03</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.51</v>
+        <v>4.52</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.09</v>
+        <v>6.12</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.49</v>
+        <v>2.22</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.88</v>
+        <v>2.49</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.77</v>
+        <v>3.23</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.06</v>
+        <v>2.85</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:52</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.21</v>
+        <v>2.44</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.65</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.46</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.66</v>
+        <v>3.21</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.52</v>
+        <v>3.21</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:52</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.18</v>
+        <v>3.9</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>5.03</v>
+        <v>4.04</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.14</v>
+        <v>4.63</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>7.88</v>
+        <v>4.62</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.9</v>
+        <v>4.18</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.04</v>
+        <v>5.03</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.63</v>
+        <v>5.14</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.62</v>
+        <v>7.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.6</v>
+        <v>4.63</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.63</v>
+        <v>2.6</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sigma-olomouc/h80EI4z2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-dukla-prague/EH1AJpLe/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.11</v>
+        <v>2.72</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.99</v>
+        <v>2.66</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>19/10/2023 08:12</t>
+          <t>20/10/2023 10:42</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>22/10/2023 10:14</t>
+          <t>22/10/2023 10:13</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-vlasim/M1HsgoCE/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.72</v>
+        <v>3.11</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>20/10/2023 10:42</t>
+          <t>19/10/2023 08:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>22/10/2023 10:13</t>
+          <t>22/10/2023 10:14</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-vlasim/M1HsgoCE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-brno/YuymX3ke/</t>
         </is>
       </c>
     </row>
@@ -10942,6 +10942,374 @@
       <c r="V114" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-varnsdorf/QgzU4rBQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-brno/tSy1c030/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-mfk-vyskov/n5xcbtlf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-prostejov/8EwgaMYm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-sparta-prague/GpUDfbmJ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.23</v>
+        <v>2.94</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 14:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>3</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Kromeriz</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.41</v>
+        <v>3.71</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>28/10/2023 10:12</t>
+          <t>28/10/2023 10:06</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.41</v>
+        <v>3.36</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-kromeriz/U7jRpNJf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-opava/GOhwrL3D/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>1</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.71</v>
+        <v>3.41</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,32 +10456,32 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
+          <t>28/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
           <t>28/10/2023 10:06</t>
         </is>
       </c>
-      <c r="R109" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>26/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>28/10/2023 10:06</t>
-        </is>
-      </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-opava/GOhwrL3D/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-kromeriz/U7jRpNJf/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,282 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-sparta-prague/GpUDfbmJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:23</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:23</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:20</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:20</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:23</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:23</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-chrudim/fVu5dKI6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:52</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-jihlava/S2Me02Js/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-taborsko/xfV9evYC/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 14:58</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>29/07/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>27/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>4.23</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:52</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>27/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>5.21</v>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 14:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.62</v>
+        <v>4.23</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.1</v>
+        <v>3.81</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.23</v>
+        <v>5.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
       <c r="J108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.71</v>
+        <v>3.41</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,32 +10364,32 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>28/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>28/10/2023 10:06</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>26/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>28/10/2023 10:06</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-opava/GOhwrL3D/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-kromeriz/U7jRpNJf/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>3</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Kromeriz</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.41</v>
+        <v>3.71</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>28/10/2023 10:12</t>
+          <t>28/10/2023 10:06</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.41</v>
+        <v>3.36</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-kromeriz/U7jRpNJf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-opava/GOhwrL3D/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,190 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-taborsko/xfV9evYC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45240.70833333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>08/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-lisen/lYbSDLms/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>08/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-zizkov/40NeJsQJ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:58</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.61</v>
+        <v>3.68</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.62</v>
+        <v>4.23</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.1</v>
+        <v>3.81</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.23</v>
+        <v>5.21</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:52</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.31</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 14:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>29/07/2023 16:52</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-jihlava/GQgBmAHo/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.76</v>
+        <v>2.31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>29/07/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>27/07/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>29/07/2023 16:52</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>27/07/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:52</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-chrudim/p6oSqSGA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-prostejov/fHhFnUWi/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>2.49</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.77</v>
+        <v>3.23</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.06</v>
+        <v>2.85</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.23</v>
+        <v>4.06</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.13</v>
+        <v>3.82</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.07</v>
+        <v>3.51</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.58</v>
+        <v>3.09</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.39</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.42</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.03</v>
+        <v>4.52</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.89</v>
+        <v>6.12</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>2.39</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.52</v>
+        <v>3.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.53</v>
+        <v>3.92</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.51</v>
+        <v>3.07</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.09</v>
+        <v>2.58</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N25" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>01/08/2023 13:11</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>3.4</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>01/08/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.23</v>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.85</v>
+        <v>2.23</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.88</v>
+        <v>3.13</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.63</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.59</v>
+        <v>4.07</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.7</v>
+        <v>3.61</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.51</v>
+        <v>3.98</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.87</v>
+        <v>2.37</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.07</v>
+        <v>3.59</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.61</v>
+        <v>2.7</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.98</v>
+        <v>2.51</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,374 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-zizkov/40NeJsQJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45241.42708333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-vlasim/x8ArAwm6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45241.42708333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-dukla-prague/KWFwBJXa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45241.4375</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:20</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:20</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:20</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/prostejov-kromeriz/nJHVCu3m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-sigma-olomouc/ttHZBaIg/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>28/07/2023 17:50</t>
+          <t>28/07/2023 17:51</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.79</v>
+        <v>3.67</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>28/07/2023 17:56</t>
+          <t>28/07/2023 17:51</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.89</v>
+        <v>3.46</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.71</v>
+        <v>4</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>28/07/2023 17:56</t>
+          <t>28/07/2023 17:51</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sparta-prague/ri4VrnWG/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-varnsdorf/ELFSOQvo/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>28/07/2023 17:51</t>
+          <t>28/07/2023 17:50</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.67</v>
+        <v>3.79</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>28/07/2023 17:51</t>
+          <t>28/07/2023 17:56</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.46</v>
+        <v>3.89</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>28/07/2023 17:51</t>
+          <t>28/07/2023 17:56</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-varnsdorf/ELFSOQvo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-sparta-prague/ri4VrnWG/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.31</v>
+        <v>3.57</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.48</v>
+        <v>2.37</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.57</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.37</v>
+        <v>3.48</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.2</v>
+        <v>3.42</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-vlasim/lWoUwF6A/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-taborsko/KdsQvei4/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>3.41</v>
+        <v>2.54</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>4.19</v>
+        <v>2.75</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:56</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.85</v>
+        <v>2.99</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:56</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>1.93</v>
+        <v>2.58</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.79</v>
+        <v>2.79</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:56</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-brno/tSy1c030/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-mfk-vyskov/n5xcbtlf/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.54</v>
+        <v>1.61</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:56</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2.99</v>
+        <v>4.37</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:56</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.58</v>
+        <v>4.33</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.79</v>
+        <v>4.75</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:56</t>
+          <t>04/11/2023 13:57</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-mfk-vyskov/n5xcbtlf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-sparta-prague/GpUDfbmJ/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>1.49</v>
+        <v>3.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.55</v>
+        <v>4.19</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/11/2023 13:56</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.15</v>
+        <v>3.43</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/11/2023 13:56</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>5.25</v>
+        <v>1.93</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.04</v>
+        <v>1.79</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/11/2023 13:57</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-prostejov/8EwgaMYm/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-brno/tSy1c030/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:56</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.37</v>
+        <v>4.09</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:56</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.75</v>
+        <v>6.04</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-sparta-prague/GpUDfbmJ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/opava-prostejov/8EwgaMYm/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.33</v>
+        <v>2.01</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11/11/2023 10:14</t>
+          <t>11/11/2023 09:51</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>11/11/2023 10:05</t>
+          <t>11/11/2023 09:51</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.94</v>
+        <v>3.54</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>11/11/2023 10:14</t>
+          <t>11/11/2023 09:51</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-vlasim/x8ArAwm6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-dukla-prague/KWFwBJXa/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
         <v>2.33</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O125" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>11/11/2023 09:51</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O125" t="inlineStr">
+      <c r="P125" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S125" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P125" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>11/11/2023 09:51</t>
-        </is>
-      </c>
-      <c r="R125" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>09/11/2023 09:13</t>
-        </is>
-      </c>
       <c r="T125" t="n">
-        <v>3.54</v>
+        <v>2.94</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>11/11/2023 09:51</t>
+          <t>11/11/2023 10:14</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-dukla-prague/KWFwBJXa/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-vlasim/x8ArAwm6/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,190 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-sigma-olomouc/ttHZBaIg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45242.4375</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:50</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:50</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:50</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sparta-prague-taborsko/Gb9n9c2C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-opava/riMaI1uQ/</t>
         </is>
       </c>
     </row>
